--- a/src/main/resources/static/facundo.xlsx
+++ b/src/main/resources/static/facundo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Raul\Documents\Proyectos\ScrippingDistribuidora\src\main\resources\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91FF9A7C-0E6E-484F-9FBA-FDCF9DC507BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CA669DC-251B-4091-9E2C-B21C9A1A2188}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4664,8 +4664,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H881"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:B6"/>
+    <sheetView tabSelected="1" topLeftCell="A861" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B853" sqref="B853"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
